--- a/src/test/resources/xls/customercare.xlsx
+++ b/src/test/resources/xls/customercare.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2640" windowWidth="13290" windowHeight="3840"/>
@@ -49,18 +49,12 @@
     <t>Verify that a "Call us" section is present in customer care contact page with customer care contact details (region, phone numbers, hours of operation, language supported||Ensure that the page has "Support Request" and "Call us" sections.</t>
   </si>
   <si>
-    <t>DRAIAMCC004</t>
-  </si>
-  <si>
     <t>OPQA-5229||OPQA-5230</t>
   </si>
   <si>
     <t>Verify that Page should change header title for different title||Ensure that the page has "Support Request" and "Call us" sections.</t>
   </si>
   <si>
-    <t>DRAIAMCC003</t>
-  </si>
-  <si>
     <t>OPQA-5174</t>
   </si>
   <si>
@@ -79,12 +73,6 @@
     <t>Verify that error messages/validation alerts " Incorrect email address format. Please try again." should be displayed when user enters incorrect email address.||Verify that error messages/validation alerts "Incorrect phone number format. Please try again.." should be displayed when user enters incorrect phone number.</t>
   </si>
   <si>
-    <t>DRAIAMCC001</t>
-  </si>
-  <si>
-    <t>DRAIAMCC002</t>
-  </si>
-  <si>
     <t>OPQA-5155</t>
   </si>
   <si>
@@ -97,21 +85,9 @@
     <t>Verify that the page shall be accessible in both an authenticated and a non-authenticated state</t>
   </si>
   <si>
-    <t>IPAIAMCC001</t>
-  </si>
-  <si>
-    <t>IPAIAMCC002</t>
-  </si>
-  <si>
-    <t>IPAIAMCC003</t>
-  </si>
-  <si>
     <t>Verify that the user should be able to select the issue type/category of the issue as an option</t>
   </si>
   <si>
-    <t>IPAIAMCC004</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -121,23 +97,47 @@
     <t>IPAIAMCC071</t>
   </si>
   <si>
-    <t>DRAIAMCC070</t>
-  </si>
-  <si>
-    <t>DRAIAMCC071</t>
-  </si>
-  <si>
-    <t>DRAIAMCC072</t>
-  </si>
-  <si>
-    <t>DRAIAMCC073</t>
+    <t>Customercare001</t>
+  </si>
+  <si>
+    <t>Customercare002</t>
+  </si>
+  <si>
+    <t>Customercare003</t>
+  </si>
+  <si>
+    <t>Customercare004</t>
+  </si>
+  <si>
+    <t>Customercare005</t>
+  </si>
+  <si>
+    <t>Customercare006</t>
+  </si>
+  <si>
+    <t>Customercare007</t>
+  </si>
+  <si>
+    <t>Customercare008</t>
+  </si>
+  <si>
+    <t>Customercare009</t>
+  </si>
+  <si>
+    <t>Customercare010</t>
+  </si>
+  <si>
+    <t>Customercare011</t>
+  </si>
+  <si>
+    <t>Customercare012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,7 +327,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,10 +359,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,7 +393,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -570,23 +568,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="34.42578125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="139.7109375" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,9 +601,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30">
       <c r="A2" s="6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>8</v>
@@ -618,9 +616,9 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="75">
       <c r="A3" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -633,162 +631,162 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30">
       <c r="A4" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="45">
       <c r="A8" s="6" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="45">
       <c r="A9" s="6" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="45">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="45">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>12</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30">
       <c r="A14" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>8</v>
@@ -797,13 +795,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="75">
       <c r="A15" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>6</v>
@@ -812,165 +810,165 @@
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="5"/>
       <c r="D16" s="11"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="6"/>
       <c r="B17" s="3"/>
       <c r="C17" s="5"/>
       <c r="D17" s="11"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="6"/>
       <c r="B18" s="3"/>
       <c r="C18" s="7"/>
       <c r="D18" s="11"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="7"/>
       <c r="D19" s="11"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="12"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="8"/>
       <c r="D21" s="12"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
       <c r="D22" s="12"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="8"/>
       <c r="D23" s="12"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="9"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="30.75" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="2"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="3"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="3"/>

--- a/src/test/resources/xls/customercare.xlsx
+++ b/src/test/resources/xls/customercare.xlsx
@@ -91,12 +91,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>IPAIAMCC070</t>
-  </si>
-  <si>
-    <t>IPAIAMCC071</t>
-  </si>
-  <si>
     <t>Customercare001</t>
   </si>
   <si>
@@ -131,6 +125,12 @@
   </si>
   <si>
     <t>Customercare012</t>
+  </si>
+  <si>
+    <t>Customercare013</t>
+  </si>
+  <si>
+    <t>Customercare014</t>
   </si>
 </sst>
 </file>
@@ -572,7 +572,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -603,7 +603,7 @@
     </row>
     <row r="2" spans="1:6" ht="30">
       <c r="A2" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>8</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="3" spans="1:6" ht="75">
       <c r="A3" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="4" spans="1:6" ht="30">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>18</v>
@@ -648,7 +648,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>19</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>12</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="8" spans="1:6" ht="45">
       <c r="A8" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>14</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="9" spans="1:6" ht="45">
       <c r="A9" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>16</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="10" spans="1:6" ht="45">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="11" spans="1:6" ht="45">
       <c r="A11" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>12</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>10</v>
@@ -785,8 +785,8 @@
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="6" t="s">
-        <v>24</v>
+      <c r="A14" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>8</v>
@@ -800,8 +800,8 @@
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="75">
-      <c r="A15" s="6" t="s">
-        <v>25</v>
+      <c r="A15" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>6</v>

--- a/src/test/resources/xls/customercare.xlsx
+++ b/src/test/resources/xls/customercare.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="13290" windowHeight="3840"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="15825" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>TCID</t>
   </si>
@@ -132,12 +132,21 @@
   <si>
     <t>Customercare014</t>
   </si>
+  <si>
+    <t>Customercare015</t>
+  </si>
+  <si>
+    <t>OPQA-5320||OPQA-5321||OPQA5322||OPQA-5323</t>
+  </si>
+  <si>
+    <t>verify that upon clicking on submit button, a success message should be displayed that confirms submission and should allow user to raise a new ticket||Verify that success message in customer care page should match with wire frame||verify that extension field should be placed next to phone number field in customer care page||Verify that all characters including special characters should be allowed in extension field in customer care page.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,6 +368,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -393,6 +403,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -568,23 +579,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="139.7109375" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -616,7 +627,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="75">
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
@@ -631,7 +642,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="30">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
@@ -646,7 +657,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -661,7 +672,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -676,7 +687,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -691,7 +702,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="45">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
@@ -706,7 +717,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="45">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
@@ -721,7 +732,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="45">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -736,7 +747,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="45">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -752,7 +763,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
@@ -768,7 +779,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
@@ -784,7 +795,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:6" ht="30">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
@@ -799,7 +810,7 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="75">
+    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
@@ -814,161 +825,169 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="11"/>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="3"/>
       <c r="C17" s="5"/>
       <c r="D17" s="11"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="3"/>
       <c r="C18" s="7"/>
       <c r="D18" s="11"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="7"/>
       <c r="D19" s="11"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="12"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="8"/>
       <c r="D21" s="12"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
       <c r="D22" s="12"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="8"/>
       <c r="D23" s="12"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="9"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" ht="30.75" customHeight="1">
+    <row r="28" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="2"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="3"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="3"/>

--- a/src/test/resources/xls/customercare.xlsx
+++ b/src/test/resources/xls/customercare.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>TCID</t>
   </si>
@@ -140,6 +140,15 @@
   </si>
   <si>
     <t>verify that upon clicking on submit button, a success message should be displayed that confirms submission and should allow user to raise a new ticket||Verify that success message in customer care page should match with wire frame||verify that extension field should be placed next to phone number field in customer care page||Verify that all characters including special characters should be allowed in extension field in customer care page.</t>
+  </si>
+  <si>
+    <t>Customercare016</t>
+  </si>
+  <si>
+    <t>OPQA-5191||OPQA-5194||OPQA-5196||OPQA-5197</t>
+  </si>
+  <si>
+    <t>Verify that the text "Drug Research Advisor Customer Care " should be hyperlinked and it should be linked to customer care / support page.||Verify that 'DRA_support@thomsonreuters.com' is replaced with ' Drug Research Advisor Customer Care.'||Verify that hyperlinked text "Drug Research Advisor Customer Care " should be opened in a second window / tab (based on user/browser preference)||Verify that the customer care page URL content shall be specific to DRA(Target Druggability)</t>
   </si>
 </sst>
 </file>
@@ -230,9 +239,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -246,6 +252,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -583,7 +592,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +614,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -613,217 +622,217 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="13"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="13"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -832,167 +841,175 @@
       <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="11"/>
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="11"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="12"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="12"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="6"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="6"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="6"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="6"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="6"/>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="6"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="6"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/xls/customercare.xlsx
+++ b/src/test/resources/xls/customercare.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2505" windowWidth="15825" windowHeight="6360"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>TCID</t>
   </si>
@@ -149,6 +149,15 @@
   </si>
   <si>
     <t>Verify that the text "Drug Research Advisor Customer Care " should be hyperlinked and it should be linked to customer care / support page.||Verify that 'DRA_support@thomsonreuters.com' is replaced with ' Drug Research Advisor Customer Care.'||Verify that hyperlinked text "Drug Research Advisor Customer Care " should be opened in a second window / tab (based on user/browser preference)||Verify that the customer care page URL content shall be specific to DRA(Target Druggability)</t>
+  </si>
+  <si>
+    <t>Customercare020</t>
+  </si>
+  <si>
+    <t>OPQA-5173</t>
+  </si>
+  <si>
+    <t>Verify that If the user is logged-in into the application, The system should prefill the webform with the name, contact information, organization, and country information obtained from the user's STeAM account</t>
   </si>
 </sst>
 </file>
@@ -345,7 +354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,7 +389,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -591,7 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -864,11 +873,19 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="10"/>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/test/resources/xls/customercare.xlsx
+++ b/src/test/resources/xls/customercare.xlsx
@@ -601,7 +601,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/xls/customercare.xlsx
+++ b/src/test/resources/xls/customercare.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2505" windowWidth="15825" windowHeight="6360"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>TCID</t>
   </si>
@@ -158,6 +158,19 @@
   </si>
   <si>
     <t>Verify that If the user is logged-in into the application, The system should prefill the webform with the name, contact information, organization, and country information obtained from the user's STeAM account</t>
+  </si>
+  <si>
+    <t>Customercare021</t>
+  </si>
+  <si>
+    <t>OPQA-5298 
+||OPQA-5299
+|| OPQA-5300</t>
+  </si>
+  <si>
+    <t>Verify that Phone Number format should Only allow digits, ‘+’ sign (at beginning), dashes ‘-‘, parentheses '()' and spaces within the field
+Verify that spaces and special characters should be stripped out from the phone Number field before being submitted to salesforce
+Verify that Minimum 7 digits and Maximum of 40 characters should be inputted in the phone field in customer care page</t>
   </si>
 </sst>
 </file>
@@ -354,7 +367,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,7 +402,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -600,13 +613,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="29" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="139.7109375" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
@@ -888,11 +901,19 @@
       </c>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="10"/>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/test/resources/xls/customercare.xlsx
+++ b/src/test/resources/xls/customercare.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2505" windowWidth="15825" windowHeight="6360"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>TCID</t>
   </si>
@@ -171,6 +171,15 @@
     <t>Verify that Phone Number format should Only allow digits, ‘+’ sign (at beginning), dashes ‘-‘, parentheses '()' and spaces within the field
 Verify that spaces and special characters should be stripped out from the phone Number field before being submitted to salesforce
 Verify that Minimum 7 digits and Maximum of 40 characters should be inputted in the phone field in customer care page</t>
+  </si>
+  <si>
+    <t>Verify that Countries list should be updated to match with SFDC list in customer care page as per document OPWLRA-630.xlsx.</t>
+  </si>
+  <si>
+    <t>OPQA-5350</t>
+  </si>
+  <si>
+    <t>Customercare017</t>
   </si>
 </sst>
 </file>
@@ -614,7 +623,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,11 +926,19 @@
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="4"/>
+      <c r="A20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>

--- a/src/test/resources/xls/customercare.xlsx
+++ b/src/test/resources/xls/customercare.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2505" windowWidth="15825" windowHeight="6360"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>TCID</t>
   </si>
@@ -180,6 +180,15 @@
   </si>
   <si>
     <t>Customercare017</t>
+  </si>
+  <si>
+    <t>Customercare022</t>
+  </si>
+  <si>
+    <t>Verify that the Custoer error page is displayed with two links below 1.for DRA CC link 2.for other product support links</t>
+  </si>
+  <si>
+    <t>OPQA-5357</t>
   </si>
 </sst>
 </file>
@@ -376,7 +385,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,7 +420,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -623,7 +632,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,10 +950,18 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/test/resources/xls/customercare.xlsx
+++ b/src/test/resources/xls/customercare.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2505" windowWidth="15825" windowHeight="6360"/>
@@ -385,7 +385,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,7 +420,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +762,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E8" s="5"/>
     </row>

--- a/src/test/resources/xls/customercare.xlsx
+++ b/src/test/resources/xls/customercare.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2505" windowWidth="15825" windowHeight="6360"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>TCID</t>
   </si>
@@ -73,13 +73,7 @@
     <t>Verify that error messages/validation alerts " Incorrect email address format. Please try again." should be displayed when user enters incorrect email address.||Verify that error messages/validation alerts "Incorrect phone number format. Please try again.." should be displayed when user enters incorrect phone number.</t>
   </si>
   <si>
-    <t>OPQA-5155</t>
-  </si>
-  <si>
     <t>OPQA-5228</t>
-  </si>
-  <si>
-    <t>Verify that the user is able to manually select any particular country and see contact details associated with it as per IPA Customer Care Contact Details.doc and DRA Customer Care Contact Details.doc documents</t>
   </si>
   <si>
     <t>Verify that the page shall be accessible in both an authenticated and a non-authenticated state</t>
@@ -189,6 +183,18 @@
   </si>
   <si>
     <t>OPQA-5357</t>
+  </si>
+  <si>
+    <t>OPQA-5155||OPQA-5353</t>
+  </si>
+  <si>
+    <t>Verify that the user is able to manually select any particular country and see contact details associated with it as per Neon Local support numbers v2.doc||Verify that toll free numbers are getting displayed as per wireframes.</t>
+  </si>
+  <si>
+    <t>OPQA-5154||OPQA-5230||OPQA-5354</t>
+  </si>
+  <si>
+    <t>Verify that a "Call us" section is present in customer care contact page with customer care contact details (region, phone numbers, hours of operation, language supported||Ensure that the page has "Support Request" and "Call us" sections.||Verify that icons are added to phone,timing and language.</t>
   </si>
 </sst>
 </file>
@@ -385,7 +391,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,7 +426,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -632,7 +638,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,15 +667,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
@@ -678,7 +684,7 @@
     </row>
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -693,13 +699,13 @@
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>5</v>
@@ -708,13 +714,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>5</v>
@@ -723,7 +729,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -738,7 +744,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -753,7 +759,7 @@
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>14</v>
@@ -762,13 +768,13 @@
         <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -783,7 +789,7 @@
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>14</v>
@@ -792,13 +798,13 @@
         <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>16</v>
@@ -807,30 +813,30 @@
         <v>17</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -839,14 +845,14 @@
         <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
@@ -855,13 +861,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>6</v>
@@ -870,19 +876,19 @@
         <v>7</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>40</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>5</v>
@@ -891,13 +897,13 @@
     </row>
     <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>5</v>
@@ -906,13 +912,13 @@
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>5</v>
@@ -921,13 +927,13 @@
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>5</v>
@@ -936,13 +942,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>5</v>
@@ -951,13 +957,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="C21" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>5</v>

--- a/src/test/resources/xls/customercare.xlsx
+++ b/src/test/resources/xls/customercare.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>TCID</t>
   </si>
@@ -61,12 +61,6 @@
     <t>Verify that the user should be able to select the issue type/category of the issue as an option.</t>
   </si>
   <si>
-    <t>OPQA-5169||OPQA-5170</t>
-  </si>
-  <si>
-    <t>Verify that error messages/validation alerts "Please enter at least 2 characters for name" should be displayed when 'name' field is empty or 'name' field contains less than two characters.||Verify that error messages/validation alerts "Please enter at least 2 characters for Organization Name " should be displayed when 'Organization Name' field is empty or 'Organization Name' field contains less than two characters.</t>
-  </si>
-  <si>
     <t>OPQA-5171||OPQA-5172</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
     <t>Customercare004</t>
   </si>
   <si>
-    <t>Customercare005</t>
-  </si>
-  <si>
     <t>Customercare006</t>
   </si>
   <si>
@@ -107,9 +98,6 @@
   </si>
   <si>
     <t>Customercare008</t>
-  </si>
-  <si>
-    <t>Customercare009</t>
   </si>
   <si>
     <t>Customercare010</t>
@@ -635,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,13 +657,13 @@
     </row>
     <row r="2" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
@@ -684,7 +672,7 @@
     </row>
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -699,13 +687,13 @@
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>5</v>
@@ -714,13 +702,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>5</v>
@@ -729,7 +717,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -744,7 +732,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -759,7 +747,7 @@
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>14</v>
@@ -768,226 +756,210 @@
         <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="C14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="D14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="14" t="s">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="11"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="11"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="8"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
@@ -998,25 +970,25 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="5"/>
+      <c r="D26" s="2"/>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1037,14 +1009,14 @@
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="5"/>
+      <c r="D31" s="2"/>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="2"/>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1064,30 +1036,16 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="5"/>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/xls/customercare.xlsx
+++ b/src/test/resources/xls/customercare.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2505" windowWidth="15825" windowHeight="6360"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -179,17 +179,17 @@
     <t>Verify that the user is able to manually select any particular country and see contact details associated with it as per Neon Local support numbers v2.doc||Verify that toll free numbers are getting displayed as per wireframes.</t>
   </si>
   <si>
-    <t>OPQA-5154||OPQA-5230||OPQA-5354</t>
-  </si>
-  <si>
-    <t>Verify that a "Call us" section is present in customer care contact page with customer care contact details (region, phone numbers, hours of operation, language supported||Ensure that the page has "Support Request" and "Call us" sections.||Verify that icons are added to phone,timing and language.</t>
+    <t>OPQA-5154||OPQA-5230||OPQA-5354||OPQA-5196||OPQA-5191</t>
+  </si>
+  <si>
+    <t>Verify that a "Call us" section is present in customer care contact page with customer care contact details (region, phone numbers, hours of operation, language supported||Ensure that the page has "Support Request" and "Call us" sections.||Verify that icons are added to phone,timing and language.||Verify that hyperlinked text "Drug Research Advisor Customer Care " should be opened in a second window / tab (based on user/browser preference)||Verify that the text "Drug Research Advisor Customer Care " should be hyperlinked and it should be linked to customer care / support page.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,7 +379,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,10 +411,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,7 +445,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -622,14 +620,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="29" customWidth="1" collapsed="1"/>
@@ -638,7 +636,7 @@
     <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,7 +653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="51.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -670,7 +668,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="75">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -685,7 +683,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -700,7 +698,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -715,7 +713,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
@@ -730,7 +728,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -745,7 +743,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="45">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
@@ -760,7 +758,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="45">
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
@@ -776,7 +774,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -792,7 +790,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -808,7 +806,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
@@ -823,7 +821,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="75">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
@@ -838,7 +836,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="45">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -853,7 +851,7 @@
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="60">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
@@ -868,7 +866,7 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="30">
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
@@ -883,7 +881,7 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="45">
       <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
@@ -898,7 +896,7 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
         <v>46</v>
       </c>
@@ -913,7 +911,7 @@
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
@@ -928,119 +926,119 @@
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="11"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="7"/>
       <c r="D21" s="11"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="8"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="30.75" customHeight="1">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="2"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="2"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="2"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="2"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="2"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="3"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="3"/>

--- a/src/test/resources/xls/customercare.xlsx
+++ b/src/test/resources/xls/customercare.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -179,10 +179,10 @@
     <t>Verify that the user is able to manually select any particular country and see contact details associated with it as per Neon Local support numbers v2.doc||Verify that toll free numbers are getting displayed as per wireframes.</t>
   </si>
   <si>
-    <t>OPQA-5154||OPQA-5230||OPQA-5354||OPQA-5196||OPQA-5191</t>
-  </si>
-  <si>
-    <t>Verify that a "Call us" section is present in customer care contact page with customer care contact details (region, phone numbers, hours of operation, language supported||Ensure that the page has "Support Request" and "Call us" sections.||Verify that icons are added to phone,timing and language.||Verify that hyperlinked text "Drug Research Advisor Customer Care " should be opened in a second window / tab (based on user/browser preference)||Verify that the text "Drug Research Advisor Customer Care " should be hyperlinked and it should be linked to customer care / support page.</t>
+    <t>OPQA-5154||OPQA-5230||OPQA-5354||OPQA-5196||OPQA-5191||OPQA-5342</t>
+  </si>
+  <si>
+    <t>Verify that a "Call us" section is present in customer care contact page with customer care contact details (region, phone numbers, hours of operation, language supported||Ensure that the page has "Support Request" and "Call us" sections.||Verify that icons are added to phone,timing and language.||Verify that hyperlinked text "Drug Research Advisor Customer Care " should be opened in a second window / tab (based on user/browser preference)||Verify that the text "Drug Research Advisor Customer Care " should be hyperlinked and it should be linked to customer care / support page.||Ensure that the App name for DRA will appear same in the Customer Care pages as it does in the DRA app</t>
   </si>
 </sst>
 </file>
@@ -624,7 +624,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" activeCellId="1" sqref="C3 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -653,7 +653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.75" customHeight="1">
+    <row r="2" spans="1:6" ht="127.5" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>

--- a/src/test/resources/xls/customercare.xlsx
+++ b/src/test/resources/xls/customercare.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>TCID</t>
   </si>
@@ -136,12 +136,6 @@
     <t>Customercare020</t>
   </si>
   <si>
-    <t>OPQA-5173</t>
-  </si>
-  <si>
-    <t>Verify that If the user is logged-in into the application, The system should prefill the webform with the name, contact information, organization, and country information obtained from the user's STeAM account</t>
-  </si>
-  <si>
     <t>Customercare021</t>
   </si>
   <si>
@@ -179,10 +173,22 @@
     <t>Verify that the user is able to manually select any particular country and see contact details associated with it as per Neon Local support numbers v2.doc||Verify that toll free numbers are getting displayed as per wireframes.</t>
   </si>
   <si>
-    <t>OPQA-5154||OPQA-5230||OPQA-5354||OPQA-5196||OPQA-5191||OPQA-5342</t>
-  </si>
-  <si>
-    <t>Verify that a "Call us" section is present in customer care contact page with customer care contact details (region, phone numbers, hours of operation, language supported||Ensure that the page has "Support Request" and "Call us" sections.||Verify that icons are added to phone,timing and language.||Verify that hyperlinked text "Drug Research Advisor Customer Care " should be opened in a second window / tab (based on user/browser preference)||Verify that the text "Drug Research Advisor Customer Care " should be hyperlinked and it should be linked to customer care / support page.||Ensure that the App name for DRA will appear same in the Customer Care pages as it does in the DRA app</t>
+    <t>Verify that a "Call us" section is present in customer care contact page with customer care contact details (region, phone numbers, hours of operation, language supported||Ensure that the page has "Support Request" and "Call us" sections.||Verify that icons are added to phone,timing and language.||Verify that hyperlinked text "Drug Research Advisor Customer Care " should be opened in a second window / tab (based on user/browser preference)||Verify that the text "Drug Research Advisor Customer Care " should be hyperlinked and it should be linked to customer care / support page.</t>
+  </si>
+  <si>
+    <t>Verify that Page should change header title for different title||Ensure that the page has "Support Request" and "Call us" sections.||Ensure that the App name for DRA will appear same in the Customer Care pages as it does in the DRA app</t>
+  </si>
+  <si>
+    <t>OPQA-5154||OPQA-5230||OPQA-5354||OPQA-5196||OPQA-5191</t>
+  </si>
+  <si>
+    <t>OPQA-5229||OPQA-5230||OPQA-5342</t>
+  </si>
+  <si>
+    <t>OPQA-5173||OPQA-5341||OPQA-5340</t>
+  </si>
+  <si>
+    <t>Verify that If the user is logged-in into the application, The system should prefill the webform with the name, contact information, organization, and country information obtained from the user's STeAM account||Verify that cancel button color should be change to blue when mouse hover ||Verify that all data entered by user should be clear after clicking on the clear button</t>
   </si>
 </sst>
 </file>
@@ -623,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" activeCellId="1" sqref="C3 C9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C20" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -661,7 +667,7 @@
         <v>52</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
@@ -688,10 +694,10 @@
         <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>5</v>
@@ -713,15 +719,15 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="30">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -866,15 +872,15 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="30">
+    <row r="16" spans="1:6" ht="45">
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>5</v>
@@ -883,13 +889,13 @@
     </row>
     <row r="17" spans="1:5" ht="45">
       <c r="A17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>5</v>
@@ -898,13 +904,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>5</v>
@@ -913,13 +919,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="C19" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>5</v>

--- a/src/test/resources/xls/customercare.xlsx
+++ b/src/test/resources/xls/customercare.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="15825" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18975" windowHeight="5025"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>TCID</t>
   </si>
@@ -76,9 +77,6 @@
     <t>Verify that the user should be able to select the issue type/category of the issue as an option</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Customercare001</t>
   </si>
   <si>
@@ -194,8 +192,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -288,7 +286,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -385,7 +382,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,9 +414,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -451,6 +449,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -626,14 +625,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C20" sqref="C19:C20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="29" customWidth="1" collapsed="1"/>
@@ -642,7 +641,7 @@
     <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,24 +658,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="127.5" customHeight="1">
+    <row r="2" spans="1:6" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="75">
-      <c r="A3" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -689,24 +688,24 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="30">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>16</v>
@@ -719,24 +718,24 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -749,9 +748,9 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="45">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>14</v>
@@ -764,9 +763,9 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="45">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>14</v>
@@ -775,46 +774,46 @@
         <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" ht="30">
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
@@ -823,13 +822,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="75">
+    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>6</v>
@@ -838,213 +837,213 @@
         <v>7</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="45">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="D14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="60">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="D15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="45">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="45">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
+      <c r="D18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="11"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="11"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="8"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="30.75" customHeight="1">
+    <row r="26" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="2"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="2"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="2"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="2"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="2"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="3"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="3"/>
